--- a/tables/results_classification_recession_period_time_auc.xlsx
+++ b/tables/results_classification_recession_period_time_auc.xlsx
@@ -673,7 +673,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>0.4090602151539142</v>
+        <v>0.4121920551390117</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -682,10 +682,10 @@
         <v>38</v>
       </c>
       <c r="I4">
-        <v>0.03299492385786802</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="J4">
-        <v>0.9908256880733946</v>
+        <v>0.9954128440366973</v>
       </c>
       <c r="K4">
         <v>14676</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -917,31 +917,31 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9">
-        <v>0.4401690495040282</v>
+        <v>0.4408915941178529</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
       <c r="I9">
-        <v>0.02538071065989848</v>
+        <v>0.01575578532742491</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.9883154819863681</v>
       </c>
       <c r="K9">
-        <v>14676</v>
+        <v>18348</v>
       </c>
       <c r="L9">
-        <v>612</v>
+        <v>3058</v>
       </c>
       <c r="M9" t="s">
         <v>33</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -967,31 +967,31 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10">
-        <v>0.4409814860892773</v>
+        <v>0.4421366367065617</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
       <c r="I10">
-        <v>0.0206794682422452</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="J10">
-        <v>0.98539435248296</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>18348</v>
+        <v>14676</v>
       </c>
       <c r="L10">
-        <v>3058</v>
+        <v>612</v>
       </c>
       <c r="M10" t="s">
         <v>33</v>
@@ -1073,7 +1073,7 @@
         <v>35</v>
       </c>
       <c r="F12">
-        <v>0.4617193685092907</v>
+        <v>0.4578540492711777</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1082,10 +1082,10 @@
         <v>38</v>
       </c>
       <c r="I12">
-        <v>0.01522842639593909</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="J12">
-        <v>0.9954128440366973</v>
+        <v>0.9908256880733946</v>
       </c>
       <c r="K12">
         <v>14676</v>
@@ -1123,7 +1123,7 @@
         <v>35</v>
       </c>
       <c r="F13">
-        <v>0.4631746844874959</v>
+        <v>0.460508545615424</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1132,10 +1132,10 @@
         <v>38</v>
       </c>
       <c r="I13">
-        <v>0.08629441624365482</v>
+        <v>0.08883248730964467</v>
       </c>
       <c r="J13">
-        <v>0.9495412844036697</v>
+        <v>0.944954128440367</v>
       </c>
       <c r="K13">
         <v>14676</v>
@@ -1373,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="F18">
-        <v>0.4792555698264054</v>
+        <v>0.4786361542153102</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -1382,10 +1382,10 @@
         <v>38</v>
       </c>
       <c r="I18">
-        <v>0.1491875923190547</v>
+        <v>0.1511570654849828</v>
       </c>
       <c r="J18">
-        <v>0.8919182083739046</v>
+        <v>0.8889970788704966</v>
       </c>
       <c r="K18">
         <v>18348</v>
@@ -1423,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <v>0.4854142485726354</v>
+        <v>0.4815457775463758</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1432,10 +1432,10 @@
         <v>38</v>
       </c>
       <c r="I19">
-        <v>0.2673559822747415</v>
+        <v>0.2018709995076317</v>
       </c>
       <c r="J19">
-        <v>0.7458617332035054</v>
+        <v>0.8111002921129503</v>
       </c>
       <c r="K19">
         <v>18348</v>
@@ -1523,7 +1523,7 @@
         <v>35</v>
       </c>
       <c r="F21">
-        <v>0.4956235794072116</v>
+        <v>0.4975220978436953</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -1532,10 +1532,10 @@
         <v>38</v>
       </c>
       <c r="I21">
-        <v>0.1565731166912851</v>
+        <v>0.171836533727228</v>
       </c>
       <c r="J21">
-        <v>0.8928919182083739</v>
+        <v>0.8743914313534566</v>
       </c>
       <c r="K21">
         <v>18348</v>
@@ -2223,7 +2223,7 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.7127127852227454</v>
+        <v>0.715863817457443</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -2232,10 +2232,10 @@
         <v>38</v>
       </c>
       <c r="I35">
-        <v>0.6454545454545455</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="J35">
-        <v>0.6633466135458167</v>
+        <v>0.5159362549800797</v>
       </c>
       <c r="K35">
         <v>14676</v>
@@ -2273,7 +2273,7 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.7139948449652527</v>
+        <v>0.7159734561101987</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -2282,10 +2282,10 @@
         <v>38</v>
       </c>
       <c r="I36">
-        <v>0.6392811296534018</v>
+        <v>0.6790757381258024</v>
       </c>
       <c r="J36">
-        <v>0.6868481302467565</v>
+        <v>0.6504706181633172</v>
       </c>
       <c r="K36">
         <v>16696</v>
@@ -2473,7 +2473,7 @@
         <v>36</v>
       </c>
       <c r="F40">
-        <v>0.7795208684858741</v>
+        <v>0.7791871268469678</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -2482,10 +2482,10 @@
         <v>38</v>
       </c>
       <c r="I40">
-        <v>0.7381258023106547</v>
+        <v>0.7394094993581515</v>
       </c>
       <c r="J40">
-        <v>0.7038921394047316</v>
+        <v>0.7013482574408547</v>
       </c>
       <c r="K40">
         <v>16696</v>
@@ -2523,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="F41">
-        <v>0.7924302788844622</v>
+        <v>0.7913799348062297</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -2532,10 +2532,10 @@
         <v>38</v>
       </c>
       <c r="I41">
-        <v>0.6181818181818182</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="J41">
-        <v>0.8366533864541833</v>
+        <v>0.8227091633466136</v>
       </c>
       <c r="K41">
         <v>14676</v>
@@ -2573,7 +2573,7 @@
         <v>36</v>
       </c>
       <c r="F42">
-        <v>0.8296993842810577</v>
+        <v>0.8310213690691778</v>
       </c>
       <c r="G42" t="s">
         <v>34</v>
@@ -2582,10 +2582,10 @@
         <v>38</v>
       </c>
       <c r="I42">
-        <v>0.7272727272727273</v>
+        <v>0.7181818181818181</v>
       </c>
       <c r="J42">
-        <v>0.7868525896414342</v>
+        <v>0.8067729083665338</v>
       </c>
       <c r="K42">
         <v>14676</v>
@@ -2623,7 +2623,7 @@
         <v>36</v>
       </c>
       <c r="F43">
-        <v>0.8404927228321408</v>
+        <v>0.841079872995305</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -2632,10 +2632,10 @@
         <v>38</v>
       </c>
       <c r="I43">
-        <v>0.7471116816431322</v>
+        <v>0.7432605905006419</v>
       </c>
       <c r="J43">
-        <v>0.8117527346731112</v>
+        <v>0.8201475451539049</v>
       </c>
       <c r="K43">
         <v>16696</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
@@ -2823,25 +2823,25 @@
         <v>36</v>
       </c>
       <c r="F47">
-        <v>0.8614968932963974</v>
+        <v>0.8595436436073887</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
         <v>38</v>
       </c>
       <c r="I47">
-        <v>0.7637997432605905</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="J47">
-        <v>0.8295599084202493</v>
+        <v>0.8745019920318725</v>
       </c>
       <c r="K47">
-        <v>16696</v>
+        <v>14676</v>
       </c>
       <c r="L47">
-        <v>4710</v>
+        <v>612</v>
       </c>
       <c r="M47" t="s">
         <v>34</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
@@ -2873,25 +2873,25 @@
         <v>36</v>
       </c>
       <c r="F48">
-        <v>0.8620608475190148</v>
+        <v>0.8629974244419706</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
         <v>38</v>
       </c>
       <c r="I48">
-        <v>0.7090909090909091</v>
+        <v>0.7637997432605905</v>
       </c>
       <c r="J48">
-        <v>0.8844621513944223</v>
+        <v>0.8313406257949632</v>
       </c>
       <c r="K48">
-        <v>14676</v>
+        <v>16696</v>
       </c>
       <c r="L48">
-        <v>612</v>
+        <v>4710</v>
       </c>
       <c r="M48" t="s">
         <v>34</v>
